--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive - Mississippi State University\Documents\Jackson Prep Basketball Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3856FF4E-F269-43F4-9E68-2ABBF28E5620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1A74CD-47FB-43B7-9F49-4347170C81D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6827C0C7-DE5F-4FEA-9FFB-59F6EFA4BF4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{6827C0C7-DE5F-4FEA-9FFB-59F6EFA4BF4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Week</t>
   </si>
@@ -61,6 +62,99 @@
   <si>
     <t>AST/TO Practice</t>
   </si>
+  <si>
+    <t>AST/TO</t>
+  </si>
+  <si>
+    <t>Greenville</t>
+  </si>
+  <si>
+    <t>Christian Col</t>
+  </si>
+  <si>
+    <t>Florence</t>
+  </si>
+  <si>
+    <t>Tri County</t>
+  </si>
+  <si>
+    <t>Cathedral</t>
+  </si>
+  <si>
+    <t>Choctaw Central</t>
+  </si>
+  <si>
+    <t>Oak Forest</t>
+  </si>
+  <si>
+    <t>Baldwin</t>
+  </si>
+  <si>
+    <t>Mars Hill</t>
+  </si>
+  <si>
+    <t>Germantown</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Desoto Central</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>Hartfield</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>Leake</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>MRA</t>
+  </si>
+  <si>
+    <t>Madison Academy</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>ASTs</t>
+  </si>
+  <si>
+    <t>OFF REB</t>
+  </si>
+  <si>
+    <t>DEF REB</t>
+  </si>
+  <si>
+    <t>TOs</t>
+  </si>
+  <si>
+    <t>FG%</t>
+  </si>
+  <si>
+    <t>3PT%</t>
+  </si>
+  <si>
+    <t>Hustle Score</t>
+  </si>
+  <si>
+    <t>DEFs</t>
+  </si>
+  <si>
+    <t>Help Ups</t>
+  </si>
+  <si>
+    <t>3PM</t>
+  </si>
 </sst>
 </file>
 
@@ -82,12 +176,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,11 +203,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2091,6 +2193,552 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AST/TO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AST/TO Game</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE8F-4311-B4A2-21D5CBD1B77E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AST/TO Practice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DE8F-4311-B4A2-21D5CBD1B77E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1288324975"/>
+        <c:axId val="1288325455"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1288324975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1288325455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1288325455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1288324975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2211,6 +2859,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3218,6 +3906,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3829,6 +5020,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0655F040-3544-1CCB-1282-07ACDDA6ECDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4156,8 +5383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B605777-2051-4CEF-8694-4C5426D16D7E}">
   <dimension ref="B1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4178,7 +5405,7 @@
         <v>5</v>
       </c>
       <c r="Q1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
@@ -4250,8 +5477,12 @@
       <c r="P3">
         <v>10</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="Q3" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1.1499999999999999</v>
+      </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4">
@@ -4284,8 +5515,12 @@
       <c r="P4">
         <v>11</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="Q4" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5">
@@ -4318,8 +5553,12 @@
       <c r="P5">
         <v>12</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="Q5" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6">
@@ -4352,8 +5591,12 @@
       <c r="P6">
         <v>13</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="Q6" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -4386,8 +5629,12 @@
       <c r="P7">
         <v>14</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="Q7" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8">
@@ -4420,8 +5667,12 @@
       <c r="P8">
         <v>15</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="Q8" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -4446,11 +5697,813 @@
       <c r="P9">
         <v>16</v>
       </c>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="3">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="R9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9203F62F-36BC-456D-8CBF-CB491AA5D690}">
+  <dimension ref="A1:W14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5">
+        <f>AVERAGE(B2:J2)</f>
+        <v>15.111111111111111</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>12</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2">
+        <v>14</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>12</v>
+      </c>
+      <c r="W2">
+        <f>AVERAGE(M2:V2)</f>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K11" si="0">AVERAGE(B3:J3)</f>
+        <v>15.777777777777779</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <v>13</v>
+      </c>
+      <c r="R3">
+        <v>22</v>
+      </c>
+      <c r="S3">
+        <v>12</v>
+      </c>
+      <c r="T3">
+        <v>20</v>
+      </c>
+      <c r="U3">
+        <v>18</v>
+      </c>
+      <c r="V3">
+        <v>17</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W11" si="1">AVERAGE(M3:V3)</f>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="0"/>
+        <v>12.777777777777779</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>11</v>
+      </c>
+      <c r="T4">
+        <v>11</v>
+      </c>
+      <c r="U4">
+        <v>14</v>
+      </c>
+      <c r="V4">
+        <v>13</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>27</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>22.555555555555557</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+      <c r="O5">
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <v>23</v>
+      </c>
+      <c r="Q5">
+        <v>15</v>
+      </c>
+      <c r="R5">
+        <v>23</v>
+      </c>
+      <c r="S5">
+        <v>18</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>16</v>
+      </c>
+      <c r="V5">
+        <v>14</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.443</v>
+      </c>
+      <c r="D6">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="F6">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="I6">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.49911111111111112</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6">
+        <v>0.26</v>
+      </c>
+      <c r="N6">
+        <v>0.42</v>
+      </c>
+      <c r="O6">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="R6">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="S6">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="T6">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="U6">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="V6">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>0.34870000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.6</v>
+      </c>
+      <c r="G7">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H7">
+        <v>0.36</v>
+      </c>
+      <c r="I7">
+        <v>0.45</v>
+      </c>
+      <c r="J7">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.33811111111111114</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="N7">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>0.115</v>
+      </c>
+      <c r="R7">
+        <v>0.222</v>
+      </c>
+      <c r="S7">
+        <v>0.308</v>
+      </c>
+      <c r="T7">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.2</v>
+      </c>
+      <c r="V7">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>0.25280000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7777777777777777</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8">
+        <v>11</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>8</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>77</v>
+      </c>
+      <c r="E9">
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <v>72</v>
+      </c>
+      <c r="G9">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>61</v>
+      </c>
+      <c r="J9">
+        <v>51</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>55.888888888888886</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9">
+        <v>33</v>
+      </c>
+      <c r="N9">
+        <v>47</v>
+      </c>
+      <c r="O9">
+        <v>53</v>
+      </c>
+      <c r="P9">
+        <v>39</v>
+      </c>
+      <c r="Q9">
+        <v>59</v>
+      </c>
+      <c r="R9">
+        <v>68</v>
+      </c>
+      <c r="S9">
+        <v>59</v>
+      </c>
+      <c r="T9">
+        <v>54</v>
+      </c>
+      <c r="U9">
+        <v>35</v>
+      </c>
+      <c r="V9">
+        <v>68</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>29</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>15</v>
+      </c>
+      <c r="P10">
+        <v>15</v>
+      </c>
+      <c r="Q10">
+        <v>26</v>
+      </c>
+      <c r="R10">
+        <v>23</v>
+      </c>
+      <c r="S10">
+        <v>22</v>
+      </c>
+      <c r="T10">
+        <v>19</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>19</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>8</v>
+      </c>
+      <c r="U11">
+        <v>8</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive - Mississippi State University\Documents\Jackson Prep Basketball Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1A74CD-47FB-43B7-9F49-4347170C81D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080BE86C-ED71-41D9-8728-E3FD8AA84909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{6827C0C7-DE5F-4FEA-9FFB-59F6EFA4BF4E}"/>
+    <workbookView xWindow="-28908" yWindow="-3228" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{6827C0C7-DE5F-4FEA-9FFB-59F6EFA4BF4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Week</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>3PM</t>
+  </si>
+  <si>
+    <t>eFG%</t>
   </si>
 </sst>
 </file>
@@ -5710,10 +5713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9203F62F-36BC-456D-8CBF-CB491AA5D690}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6495,6 +6498,9 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -6503,6 +6509,46 @@
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="L14" s="4"/>
     </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
